--- a/Информация о проходах/Санарова Ангелина Валентиновна.xlsx
+++ b/Информация о проходах/Санарова Ангелина Валентиновна.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,7 +449,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>2024-05-20 14:12:31</t>
+          <t>2024-06-05 14:10:23</t>
         </is>
       </c>
     </row>
@@ -481,7 +481,359 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-05-20 14:15:00</t>
+          <t>2024-06-05 14:59:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Санарова Ангелина Валентиновна</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Специалист по управлению рисками для качества</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Отдел ОКК</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2024-06-06 13:53:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Санарова Ангелина Валентиновна</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Специалист по управлению рисками для качества</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Отдел ОКК</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2024-06-06 13:57:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Санарова Ангелина Валентиновна</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Специалист по управлению рисками для качества</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Отдел ОКК</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2024-06-11 13:30:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Санарова Ангелина Валентиновна</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Специалист по управлению рисками для качества</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Отдел ОКК</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2024-06-11 14:09:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Санарова Ангелина Валентиновна</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Специалист по управлению рисками для качества</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Отдел ОКК</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2024-06-11 14:55:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Санарова Ангелина Валентиновна</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Специалист по управлению рисками для качества</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Отдел ОКК</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2024-06-11 15:42:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Санарова Ангелина Валентиновна</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Специалист по управлению рисками для качества</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Отдел ОКК</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2024-06-13 10:10:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Санарова Ангелина Валентиновна</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Специалист по управлению рисками для качества</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Отдел ОКК</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2024-06-13 11:01:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Санарова Ангелина Валентиновна</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Специалист по управлению рисками для качества</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Отдел ОКК</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2024-06-19 10:10:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Санарова Ангелина Валентиновна</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Специалист по управлению рисками для качества</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Отдел ОКК</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2024-06-19 11:12:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Санарова Ангелина Валентиновна</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Специалист по управлению рисками для качества</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Отдел ОКК</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2024-06-21 10:14:53</t>
         </is>
       </c>
     </row>
